--- a/test_case_data/bmc/bmc_tk.xlsx
+++ b/test_case_data/bmc/bmc_tk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="10185" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment ref="A39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5601" uniqueCount="2013">
   <si>
     <t>caseNum</t>
   </si>
@@ -7266,18 +7266,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>当月已提交，二次提交时</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户电子驾驶证上的图在审核中状态</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success": false, "code":1030008, "msg": "每月只能更新一次照片,下月再来哦"}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>LicenAvaUpdate001</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -7291,10 +7279,6 @@
   </si>
   <si>
     <t>LicenAvaUpdate004</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>LicenAvaUpdate005</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -10261,10 +10245,6 @@
   </si>
   <si>
     <t>查询强制险</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCompulsoryIns001</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -10505,7 +10485,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10515,12 +10495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2F5496"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10560,7 +10534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10710,28 +10684,25 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10758,19 +10729,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11465,13 +11436,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -11486,11 +11457,11 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -19818,7 +19789,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>243</v>
@@ -21148,10 +21119,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21278,7 +21249,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>1780</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -21459,7 +21430,7 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>593</v>
@@ -21509,8 +21480,8 @@
       <c r="B8" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>1811</v>
+      <c r="C8" s="54" t="s">
+        <v>1807</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
@@ -21519,7 +21490,7 @@
         <v>608</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
@@ -21774,7 +21745,7 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>593</v>
@@ -21818,8 +21789,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>1806</v>
+      <c r="A15" s="50" t="s">
+        <v>1803</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>593</v>
@@ -21837,7 +21808,7 @@
         <v>1796</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="51" t="s">
         <v>616</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -21863,8 +21834,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>1807</v>
+      <c r="A16" s="50" t="s">
+        <v>1804</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1774</v>
@@ -21882,7 +21853,7 @@
         <v>623</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="51" t="s">
         <v>616</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -21908,8 +21879,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>1808</v>
+      <c r="A17" s="50" t="s">
+        <v>1805</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>593</v>
@@ -21927,7 +21898,7 @@
         <v>1800</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="52" t="s">
         <v>1801</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -21952,43 +21923,40 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
         <v>1809</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>621</v>
+      <c r="C18" s="47" t="s">
+        <v>1808</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>1802</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="48" t="s">
-        <v>1803</v>
+      <c r="H18" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>634</v>
+        <v>98</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>1804</v>
+        <v>636</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>73</v>
@@ -21997,24 +21965,24 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>1813</v>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>1930</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>1812</v>
+      <c r="C19" s="18" t="s">
+        <v>638</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>1799</v>
+        <v>639</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1929</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
@@ -22023,14 +21991,15 @@
       <c r="I19" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="K19" s="8" t="s">
+        <v>1811</v>
+      </c>
       <c r="L19" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="M19" s="8"/>
       <c r="O19" s="21" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="P19" s="22" t="s">
         <v>73</v>
@@ -22041,7 +22010,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>593</v>
@@ -22050,13 +22019,13 @@
         <v>638</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1933</v>
+        <v>1810</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
@@ -22066,7 +22035,7 @@
         <v>98</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1815</v>
+        <v>643</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>640</v>
@@ -22084,7 +22053,7 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>593</v>
@@ -22096,10 +22065,10 @@
         <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>1814</v>
+        <v>519</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
@@ -22109,7 +22078,7 @@
         <v>98</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>640</v>
@@ -22127,7 +22096,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>593</v>
@@ -22139,7 +22108,7 @@
         <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>519</v>
@@ -22152,7 +22121,7 @@
         <v>98</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>640</v>
@@ -22170,7 +22139,7 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>593</v>
@@ -22182,7 +22151,7 @@
         <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>519</v>
@@ -22195,7 +22164,7 @@
         <v>98</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>640</v>
@@ -22213,7 +22182,7 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>593</v>
@@ -22222,10 +22191,10 @@
         <v>638</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>519</v>
@@ -22238,10 +22207,10 @@
         <v>98</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>649</v>
+        <v>1812</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="M24" s="8"/>
       <c r="O24" s="21" t="s">
@@ -22255,66 +22224,63 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>1939</v>
+      <c r="A25" s="65" t="s">
+        <v>1938</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>638</v>
+        <v>652</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1936</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="2" t="s">
-        <v>597</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="I25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>1816</v>
-      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="O25" s="21" t="s">
-        <v>641</v>
+        <v>654</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>1937</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="R25" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="R25" s="32" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="66" t="s">
-        <v>1942</v>
+      <c r="A26" s="55" t="s">
+        <v>1815</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1940</v>
+        <v>603</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1817</v>
+        <v>516</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="2" t="s">
@@ -22327,8 +22293,8 @@
       <c r="M26" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O26" s="30" t="s">
-        <v>1941</v>
+      <c r="O26" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="P26" s="22" t="s">
         <v>655</v>
@@ -22338,37 +22304,39 @@
       </c>
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56" t="s">
-        <v>1819</v>
+      <c r="A27" s="66" t="s">
+        <v>1941</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>516</v>
+        <v>594</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>1939</v>
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="56" t="s">
+        <v>1940</v>
+      </c>
       <c r="L27" s="8" t="s">
         <v>654</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>604</v>
+      <c r="O27" s="30" t="s">
+        <v>1944</v>
       </c>
       <c r="P27" s="22" t="s">
         <v>655</v>
@@ -22377,118 +22345,121 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67" t="s">
-        <v>1945</v>
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="44" t="s">
+        <v>1942</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F28" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="O28" s="30" t="s">
         <v>1943</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="I28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" s="57" t="s">
-        <v>1944</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>1948</v>
-      </c>
-      <c r="P28" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="R28" s="32" t="s">
-        <v>600</v>
-      </c>
+      <c r="P28" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="67" t="s">
         <v>1946</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="44" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>1950</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="53" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>1820</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="O29" s="30" t="s">
+      <c r="K30" s="44" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>1945</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="44" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="53" t="s">
         <v>1947</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q29" s="33"/>
-    </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>1961</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>1963</v>
-      </c>
-      <c r="K30" s="44" t="s">
-        <v>1962</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>1954</v>
-      </c>
-      <c r="O30" s="11"/>
-      <c r="Q30" s="33"/>
-    </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54" t="s">
-        <v>1959</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>656</v>
@@ -22500,10 +22471,10 @@
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>1821</v>
+        <v>668</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>659</v>
@@ -22512,28 +22483,24 @@
         <v>660</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>665</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="O31" s="30" t="s">
-        <v>1949</v>
+        <v>669</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="44" t="s">
-        <v>1822</v>
-      </c>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54" t="s">
-        <v>1951</v>
+      <c r="A32" s="53" t="s">
+        <v>1948</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>656</v>
@@ -22545,7 +22512,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>590</v>
@@ -22557,13 +22524,13 @@
         <v>660</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>665</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>667</v>
@@ -22572,9 +22539,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54" t="s">
-        <v>1952</v>
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="53" t="s">
+        <v>1949</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>656</v>
@@ -22586,7 +22553,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>590</v>
@@ -22598,13 +22565,13 @@
         <v>660</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="O33" s="11" t="s">
         <v>667</v>
@@ -22613,65 +22580,68 @@
         <v>662</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54" t="s">
-        <v>1953</v>
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="57" t="s">
+        <v>1963</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>663</v>
+      <c r="C34" s="44" t="s">
+        <v>1960</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>590</v>
+        <v>677</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>659</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>667</v>
+        <v>334</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>1961</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="58" t="s">
-        <v>1967</v>
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="68" t="s">
+        <v>1962</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>1964</v>
+      <c r="C35" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>1824</v>
+        <v>683</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>672</v>
@@ -22683,111 +22653,108 @@
         <v>679</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="O35" s="30" t="s">
-        <v>1965</v>
+        <v>685</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>681</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="69" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="R35" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="67" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>1986</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O36" s="11"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="53" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>1969</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="P36" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>1991</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>1984</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="68" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F37" s="44" t="s">
+    </row>
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="44" t="s">
         <v>1990</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>1991</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="M37" s="48" t="s">
-        <v>1992</v>
-      </c>
-      <c r="O37" s="11"/>
-      <c r="R37" s="8"/>
-    </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54" t="s">
-        <v>1987</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>687</v>
+      <c r="C38" s="44" t="s">
+        <v>1989</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>689</v>
@@ -22796,141 +22763,141 @@
         <v>660</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>690</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="44" t="s">
-        <v>1994</v>
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="50" t="s">
+        <v>1824</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C39" s="44" t="s">
-        <v>1993</v>
+      <c r="C39" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>1827</v>
+        <v>694</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K39" s="48" t="s">
-        <v>1996</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="O39" s="30" t="s">
-        <v>1997</v>
+        <v>696</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="51" t="s">
-        <v>1828</v>
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="44" t="s">
+        <v>2002</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>657</v>
+      <c r="C40" s="44" t="s">
+        <v>1994</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>2001</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="M40" s="48" t="s">
-        <v>2009</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>661</v>
+        <v>2007</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>1995</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>1998</v>
+      <c r="C41" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>1829</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>2005</v>
+        <v>701</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>660</v>
       </c>
+      <c r="K41" s="44" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>702</v>
+      </c>
       <c r="M41" s="48" t="s">
-        <v>2011</v>
-      </c>
-      <c r="O41" s="30" t="s">
-        <v>1999</v>
+        <v>2004</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>700</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>656</v>
@@ -22942,7 +22909,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>699</v>
@@ -22953,14 +22920,8 @@
       <c r="I42" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K42" s="44" t="s">
-        <v>2007</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="M42" s="48" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>700</v>
@@ -22969,9 +22930,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>656</v>
@@ -22983,7 +22944,7 @@
         <v>31</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>699</v>
@@ -22994,8 +22955,14 @@
       <c r="I43" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="M43" s="48" t="s">
-        <v>2010</v>
+      <c r="K43" s="44" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>703</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>700</v>
@@ -23004,9 +22971,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>656</v>
@@ -23018,7 +22985,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>699</v>
@@ -23029,14 +22996,8 @@
       <c r="I44" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K44" s="44" t="s">
-        <v>2012</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>703</v>
+      <c r="M44" s="48" t="s">
+        <v>2006</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>700</v>
@@ -23045,9 +23006,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="44" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>656</v>
@@ -23059,7 +23020,7 @@
         <v>31</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>699</v>
@@ -23070,8 +23031,14 @@
       <c r="I45" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="M45" s="48" t="s">
-        <v>2010</v>
+      <c r="K45" s="44" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>703</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>700</v>
@@ -23080,256 +23047,262 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="44" t="s">
-        <v>2004</v>
+        <v>1966</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>697</v>
+      <c r="C46" s="44" t="s">
+        <v>1968</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>699</v>
+        <v>708</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>1969</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>695</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="K46" s="44" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>700</v>
+        <v>708</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>1970</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>1967</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44" t="s">
-        <v>1970</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:20" s="69" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="50" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B47" s="69" t="s">
         <v>656</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="50" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="F47" s="69" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H47" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="I47" s="69" t="s">
+        <v>660</v>
+      </c>
+      <c r="K47" s="69" t="s">
         <v>1972</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="F47" s="44" t="s">
+      <c r="L47" s="69" t="s">
+        <v>714</v>
+      </c>
+      <c r="M47" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="O47" s="70" t="s">
+        <v>715</v>
+      </c>
+      <c r="P47" s="69" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="K47" s="44" t="s">
-        <v>2014</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="M47" s="48" t="s">
-        <v>1974</v>
-      </c>
-      <c r="O47" s="30" t="s">
-        <v>1971</v>
-      </c>
-      <c r="P47" s="2" t="s">
+      <c r="L48" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" s="70" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="51" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B48" s="70" t="s">
-        <v>656</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D48" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="70" t="s">
-        <v>710</v>
-      </c>
-      <c r="F48" s="70" t="s">
-        <v>1975</v>
-      </c>
-      <c r="H48" s="70" t="s">
-        <v>712</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>660</v>
-      </c>
-      <c r="K48" s="70" t="s">
-        <v>1976</v>
-      </c>
-      <c r="L48" s="70" t="s">
-        <v>714</v>
-      </c>
-      <c r="M48" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="O48" s="71" t="s">
-        <v>715</v>
-      </c>
-      <c r="P48" s="70" t="s">
-        <v>662</v>
-      </c>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
     </row>
     <row r="49" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B49" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
+      <c r="E49" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="J49" s="8"/>
       <c r="K49" s="2" t="s">
-        <v>1977</v>
-      </c>
-      <c r="L49" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>714</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="N49" s="8"/>
+        <v>101</v>
+      </c>
       <c r="O49" s="11" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
     </row>
     <row r="50" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="L50" s="2" t="s">
+      <c r="J50" s="8"/>
+      <c r="K50" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="L50" s="8" t="s">
         <v>714</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="N50" s="8"/>
       <c r="O50" s="11" t="s">
         <v>724</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>662</v>
       </c>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
     </row>
     <row r="51" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>723</v>
+        <v>729</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>1974</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>660</v>
+      <c r="I51" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>714</v>
+        <v>1975</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>727</v>
+        <v>101</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="11" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>662</v>
@@ -23340,33 +23313,31 @@
     </row>
     <row r="52" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>729</v>
+      <c r="C52" s="2" t="s">
+        <v>733</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>729</v>
+      <c r="E52" s="2" t="s">
+        <v>733</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1978</v>
-      </c>
-      <c r="G52" s="8"/>
+        <v>734</v>
+      </c>
       <c r="H52" s="8" t="s">
         <v>712</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="J52" s="8"/>
       <c r="K52" s="8" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>730</v>
@@ -23374,61 +23345,57 @@
       <c r="M52" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N52" s="8"/>
       <c r="O52" s="11" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
     </row>
     <row r="53" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>732</v>
+      <c r="A53" s="69" t="s">
+        <v>736</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>734</v>
+        <v>1977</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>679</v>
+      <c r="I53" s="8" t="s">
+        <v>660</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>101</v>
+        <v>741</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="70" t="s">
-        <v>736</v>
+      <c r="A54" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>656</v>
@@ -23440,10 +23407,10 @@
         <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1981</v>
+        <v>739</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>712</v>
@@ -23451,14 +23418,14 @@
       <c r="I54" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="K54" s="8" t="s">
-        <v>1977</v>
+      <c r="K54" s="2" t="s">
+        <v>1978</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>742</v>
@@ -23469,40 +23436,35 @@
     </row>
     <row r="55" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>712</v>
-      </c>
+        <v>1979</v>
+      </c>
+      <c r="H55" s="8"/>
       <c r="I55" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="L55" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>662</v>
@@ -23510,32 +23472,37 @@
     </row>
     <row r="56" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>76</v>
+        <v>754</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H56" s="8"/>
+        <v>1980</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>695</v>
+      </c>
       <c r="I56" s="8" t="s">
         <v>660</v>
       </c>
+      <c r="K56" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="L56" s="2" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>752</v>
@@ -23546,7 +23513,7 @@
     </row>
     <row r="57" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>656</v>
@@ -23558,10 +23525,10 @@
         <v>31</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1984</v>
+        <v>535</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>695</v>
@@ -23570,13 +23537,13 @@
         <v>660</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>756</v>
+        <v>1981</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>757</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>752</v>
@@ -23587,7 +23554,7 @@
     </row>
     <row r="58" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>656</v>
@@ -23599,7 +23566,7 @@
         <v>31</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>535</v>
@@ -23611,13 +23578,13 @@
         <v>660</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1985</v>
+        <v>764</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>757</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>752</v>
@@ -23628,7 +23595,7 @@
     </row>
     <row r="59" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>656</v>
@@ -23640,7 +23607,7 @@
         <v>31</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>535</v>
@@ -23652,13 +23619,13 @@
         <v>660</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>764</v>
+        <v>587</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>757</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>752</v>
@@ -23669,7 +23636,7 @@
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>656</v>
@@ -23681,7 +23648,7 @@
         <v>31</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>535</v>
@@ -23693,13 +23660,13 @@
         <v>660</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>757</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>752</v>
@@ -23710,7 +23677,7 @@
     </row>
     <row r="61" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>656</v>
@@ -23722,7 +23689,7 @@
         <v>31</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>535</v>
@@ -23734,13 +23701,13 @@
         <v>660</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>581</v>
+        <v>774</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>757</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>752</v>
@@ -23751,7 +23718,7 @@
     </row>
     <row r="62" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>656</v>
@@ -23763,7 +23730,7 @@
         <v>31</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>535</v>
@@ -23775,13 +23742,13 @@
         <v>660</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>774</v>
+        <v>536</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>757</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="O62" s="11" t="s">
         <v>752</v>
@@ -23792,7 +23759,7 @@
     </row>
     <row r="63" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>656</v>
@@ -23804,7 +23771,7 @@
         <v>31</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>535</v>
@@ -23816,7 +23783,7 @@
         <v>660</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>536</v>
+        <v>781</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>757</v>
@@ -23828,47 +23795,6 @@
         <v>752</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="O64" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="P64" s="2" t="s">
         <v>662</v>
       </c>
     </row>
@@ -23882,12 +23808,12 @@
     <hyperlink ref="O5" r:id="rId4"/>
     <hyperlink ref="O6" r:id="rId5" tooltip="http://yapi.hikcreate.com/project/32/interface/api/22758"/>
     <hyperlink ref="O7" r:id="rId6" tooltip="http://yapi.hikcreate.com/project/32/interface/api/22758"/>
-    <hyperlink ref="O20" r:id="rId7" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
-    <hyperlink ref="O21" r:id="rId8" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
-    <hyperlink ref="O22" r:id="rId9" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
-    <hyperlink ref="O23" r:id="rId10" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
-    <hyperlink ref="O24" r:id="rId11" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
-    <hyperlink ref="O25" r:id="rId12" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
+    <hyperlink ref="O19" r:id="rId7" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
+    <hyperlink ref="O20" r:id="rId8" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
+    <hyperlink ref="O21" r:id="rId9" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
+    <hyperlink ref="O22" r:id="rId10" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
+    <hyperlink ref="O23" r:id="rId11" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
+    <hyperlink ref="O24" r:id="rId12" tooltip="http://yapi.hikcreate.com/project/32/interface/api/10859"/>
     <hyperlink ref="O14" r:id="rId13" tooltip="http://yapi.hikcreate.com/project/31/interface/api/22750"/>
     <hyperlink ref="O15" r:id="rId14" tooltip="http://yapi.hikcreate.com/project/31/interface/api/22750"/>
     <hyperlink ref="O16" r:id="rId15" tooltip="http://yapi.hikcreate.com/project/31/interface/api/22750"/>
@@ -23898,7 +23824,7 @@
     <hyperlink ref="O8" r:id="rId20" tooltip="http://yapi.hikcreate.com/project/32/interface/api/22759"/>
     <hyperlink ref="O9" r:id="rId21" tooltip="http://yapi.hikcreate.com/project/32/interface/api/22759"/>
     <hyperlink ref="O10" r:id="rId22" tooltip="http://yapi.hikcreate.com/project/32/interface/api/22759"/>
-    <hyperlink ref="O19" r:id="rId23" tooltip="http://yapi.hikcreate.com/project/32/interface/api/5332"/>
+    <hyperlink ref="O18" r:id="rId23" tooltip="http://yapi.hikcreate.com/project/32/interface/api/5332"/>
     <hyperlink ref="R2" r:id="rId24"/>
     <hyperlink ref="R3" r:id="rId25"/>
     <hyperlink ref="R4" r:id="rId26"/>
@@ -23912,43 +23838,41 @@
     <hyperlink ref="R9" r:id="rId34"/>
     <hyperlink ref="R10" r:id="rId35"/>
     <hyperlink ref="R17" r:id="rId36"/>
-    <hyperlink ref="R19" r:id="rId37"/>
+    <hyperlink ref="R18" r:id="rId37"/>
     <hyperlink ref="R14" r:id="rId38" tooltip="http://testbmcapp.hikcreate.com"/>
     <hyperlink ref="R15" r:id="rId39" tooltip="http://testbmcapp.hikcreate.com"/>
     <hyperlink ref="R16" r:id="rId40" tooltip="http://testbmcapp.hikcreate.com"/>
-    <hyperlink ref="R20" r:id="rId41"/>
-    <hyperlink ref="R21" r:id="rId42"/>
-    <hyperlink ref="R22" r:id="rId43"/>
-    <hyperlink ref="R23" r:id="rId44"/>
-    <hyperlink ref="R24" r:id="rId45"/>
-    <hyperlink ref="R25" r:id="rId46"/>
-    <hyperlink ref="O26" r:id="rId47"/>
-    <hyperlink ref="O27" r:id="rId48"/>
-    <hyperlink ref="O28" r:id="rId49"/>
-    <hyperlink ref="R26" r:id="rId50"/>
-    <hyperlink ref="R27" r:id="rId51"/>
-    <hyperlink ref="R28" r:id="rId52"/>
-    <hyperlink ref="O29" r:id="rId53"/>
-    <hyperlink ref="O35" r:id="rId54"/>
-    <hyperlink ref="O38" r:id="rId55"/>
-    <hyperlink ref="O36" r:id="rId56"/>
-    <hyperlink ref="O39" r:id="rId57"/>
-    <hyperlink ref="O40" r:id="rId58"/>
-    <hyperlink ref="O54" r:id="rId59"/>
-    <hyperlink ref="O55" r:id="rId60"/>
-    <hyperlink ref="O56" r:id="rId61"/>
-    <hyperlink ref="O57:O59" r:id="rId62" display="http://yapi.hikcreate.com/project/32/interface/api/11066"/>
-    <hyperlink ref="O60:O62" r:id="rId63" display="http://yapi.hikcreate.com/project/32/interface/api/11066"/>
-    <hyperlink ref="O63:O64" r:id="rId64" display="http://yapi.hikcreate.com/project/32/interface/api/11066"/>
-    <hyperlink ref="O18" r:id="rId65" tooltip="http://yapi.hikcreate.com/project/31/interface/api/22750"/>
-    <hyperlink ref="R18" r:id="rId66"/>
-    <hyperlink ref="O31" r:id="rId67"/>
-    <hyperlink ref="O47" r:id="rId68"/>
-    <hyperlink ref="O41" r:id="rId69"/>
+    <hyperlink ref="R19" r:id="rId41"/>
+    <hyperlink ref="R20" r:id="rId42"/>
+    <hyperlink ref="R21" r:id="rId43"/>
+    <hyperlink ref="R22" r:id="rId44"/>
+    <hyperlink ref="R23" r:id="rId45"/>
+    <hyperlink ref="R24" r:id="rId46"/>
+    <hyperlink ref="O25" r:id="rId47"/>
+    <hyperlink ref="O26" r:id="rId48"/>
+    <hyperlink ref="O27" r:id="rId49"/>
+    <hyperlink ref="R25" r:id="rId50"/>
+    <hyperlink ref="R26" r:id="rId51"/>
+    <hyperlink ref="R27" r:id="rId52"/>
+    <hyperlink ref="O28" r:id="rId53"/>
+    <hyperlink ref="O34" r:id="rId54"/>
+    <hyperlink ref="O37" r:id="rId55"/>
+    <hyperlink ref="O35" r:id="rId56"/>
+    <hyperlink ref="O38" r:id="rId57"/>
+    <hyperlink ref="O39" r:id="rId58"/>
+    <hyperlink ref="O53" r:id="rId59"/>
+    <hyperlink ref="O54" r:id="rId60"/>
+    <hyperlink ref="O55" r:id="rId61"/>
+    <hyperlink ref="O56:O58" r:id="rId62" display="http://yapi.hikcreate.com/project/32/interface/api/11066"/>
+    <hyperlink ref="O59:O61" r:id="rId63" display="http://yapi.hikcreate.com/project/32/interface/api/11066"/>
+    <hyperlink ref="O62:O63" r:id="rId64" display="http://yapi.hikcreate.com/project/32/interface/api/11066"/>
+    <hyperlink ref="O30" r:id="rId65"/>
+    <hyperlink ref="O46" r:id="rId66"/>
+    <hyperlink ref="O40" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId70"/>
-  <legacyDrawing r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId68"/>
+  <legacyDrawing r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -27613,13 +27537,13 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -27628,7 +27552,7 @@
         <v>1177</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="G2" s="7"/>
       <c r="I2" s="2" t="s">
@@ -27641,7 +27565,7 @@
         <v>101</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>73</v>
@@ -27652,13 +27576,13 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>1881</v>
+      <c r="C3" s="54" t="s">
+        <v>1877</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -27667,7 +27591,7 @@
         <v>1179</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
@@ -27695,13 +27619,13 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -27710,7 +27634,7 @@
         <v>1184</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="G4" s="7"/>
       <c r="I4" s="2" t="s">
@@ -27735,13 +27659,13 @@
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>1877</v>
+      <c r="C5" s="54" t="s">
+        <v>1873</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -27750,7 +27674,7 @@
         <v>1188</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
@@ -27778,13 +27702,13 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -27793,7 +27717,7 @@
         <v>1193</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="2" t="s">
@@ -27818,13 +27742,13 @@
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -27833,7 +27757,7 @@
         <v>1197</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="G7" s="7"/>
       <c r="I7" s="2" t="s">
@@ -27860,7 +27784,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1176</v>
@@ -27902,7 +27826,7 @@
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1176</v>
@@ -27944,7 +27868,7 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1176</v>
@@ -27986,13 +27910,13 @@
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -28001,7 +27925,7 @@
         <v>1210</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11" s="2" t="s">
@@ -28025,13 +27949,13 @@
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -28040,7 +27964,7 @@
         <v>1212</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
@@ -28056,7 +27980,7 @@
         <v>1216</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>1217</v>
@@ -28070,7 +27994,7 @@
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1176</v>
@@ -28115,13 +28039,13 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -28130,7 +28054,7 @@
         <v>1222</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="G14" s="7"/>
       <c r="I14" s="2" t="s">
@@ -28154,13 +28078,13 @@
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -28199,7 +28123,7 @@
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1176</v>
@@ -28244,7 +28168,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1176</v>
@@ -28286,7 +28210,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1176</v>
@@ -28301,7 +28225,7 @@
         <v>1240</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="G18" s="7"/>
       <c r="I18" s="2" t="s">
@@ -28328,7 +28252,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1176</v>
@@ -28370,7 +28294,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1176</v>
@@ -28412,7 +28336,7 @@
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1176</v>
@@ -28454,7 +28378,7 @@
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1176</v>
@@ -28496,7 +28420,7 @@
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="44" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1176</v>
@@ -28538,7 +28462,7 @@
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="44" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1176</v>
@@ -28580,13 +28504,13 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
@@ -28622,7 +28546,7 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1176</v>
@@ -28664,7 +28588,7 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1176</v>
@@ -28706,7 +28630,7 @@
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1176</v>
@@ -28721,7 +28645,7 @@
         <v>1281</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="2" t="s">
@@ -28731,7 +28655,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>1284</v>
@@ -28751,7 +28675,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1176</v>
@@ -28776,7 +28700,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>1288</v>
@@ -28796,7 +28720,7 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1176</v>
@@ -28821,7 +28745,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>1288</v>
@@ -28841,7 +28765,7 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1176</v>
@@ -28866,7 +28790,7 @@
         <v>24</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>1288</v>
@@ -28886,7 +28810,7 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1176</v>
@@ -28911,7 +28835,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>1288</v>
@@ -28931,7 +28855,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1176</v>
@@ -28956,7 +28880,7 @@
         <v>24</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>1288</v>
@@ -28976,7 +28900,7 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1176</v>
@@ -29001,7 +28925,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>1288</v>
@@ -29021,7 +28945,7 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1176</v>
@@ -29066,7 +28990,7 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1176</v>
@@ -29081,7 +29005,7 @@
         <v>1302</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
@@ -29111,7 +29035,7 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1176</v>
@@ -29156,7 +29080,7 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1176</v>
@@ -29201,7 +29125,7 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1176</v>
@@ -29246,7 +29170,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1176</v>
@@ -29291,7 +29215,7 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1176</v>
@@ -29306,7 +29230,7 @@
         <v>1319</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="2" t="s">
@@ -29333,7 +29257,7 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1176</v>
@@ -29375,7 +29299,7 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1176</v>
@@ -29417,7 +29341,7 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1176</v>
@@ -29459,7 +29383,7 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="44" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1176</v>
@@ -29474,7 +29398,7 @@
         <v>1331</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="G45" s="7"/>
       <c r="I45" s="2" t="s">
@@ -29501,7 +29425,7 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="44" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1176</v>
@@ -29542,14 +29466,14 @@
       </c>
     </row>
     <row r="47" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
-        <v>1914</v>
+      <c r="A47" s="58" t="s">
+        <v>1910</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>1176</v>
       </c>
-      <c r="C47" s="60" t="s">
-        <v>1876</v>
+      <c r="C47" s="59" t="s">
+        <v>1872</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>20</v>
@@ -29557,23 +29481,23 @@
       <c r="E47" s="35" t="s">
         <v>1340</v>
       </c>
-      <c r="F47" s="61" t="s">
-        <v>1873</v>
+      <c r="F47" s="60" t="s">
+        <v>1869</v>
       </c>
       <c r="G47" s="7"/>
       <c r="I47" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="62" t="s">
+      <c r="K47" s="61" t="s">
         <v>1342</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>1340</v>
       </c>
-      <c r="M47" s="63" t="s">
-        <v>1915</v>
-      </c>
-      <c r="O47" s="64" t="s">
+      <c r="M47" s="62" t="s">
+        <v>1911</v>
+      </c>
+      <c r="O47" s="63" t="s">
         <v>1343</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -29584,13 +29508,13 @@
       </c>
     </row>
     <row r="48" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
-        <v>1874</v>
+      <c r="A48" s="58" t="s">
+        <v>1870</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>1176</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="64" t="s">
         <v>1339</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -29599,23 +29523,23 @@
       <c r="E48" s="35" t="s">
         <v>1344</v>
       </c>
-      <c r="F48" s="61" t="s">
+      <c r="F48" s="60" t="s">
         <v>1341</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="62" t="s">
+      <c r="K48" s="61" t="s">
         <v>1345</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>1344</v>
       </c>
-      <c r="M48" s="63" t="s">
-        <v>1915</v>
-      </c>
-      <c r="O48" s="64" t="s">
+      <c r="M48" s="62" t="s">
+        <v>1911</v>
+      </c>
+      <c r="O48" s="63" t="s">
         <v>1343</v>
       </c>
       <c r="P48" s="22" t="s">
@@ -29626,13 +29550,13 @@
       </c>
     </row>
     <row r="49" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
-        <v>1875</v>
+      <c r="A49" s="58" t="s">
+        <v>1871</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>1176</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="64" t="s">
         <v>1339</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -29641,23 +29565,23 @@
       <c r="E49" s="35" t="s">
         <v>1346</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="60" t="s">
         <v>1341</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="62" t="s">
+      <c r="K49" s="61" t="s">
         <v>1347</v>
       </c>
       <c r="L49" s="35" t="s">
         <v>1348</v>
       </c>
-      <c r="M49" s="63" t="s">
-        <v>1916</v>
-      </c>
-      <c r="O49" s="64" t="s">
+      <c r="M49" s="62" t="s">
+        <v>1912</v>
+      </c>
+      <c r="O49" s="63" t="s">
         <v>1343</v>
       </c>
       <c r="P49" s="22" t="s">
@@ -29668,13 +29592,13 @@
       </c>
     </row>
     <row r="50" spans="1:18" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="F50" s="61"/>
+      <c r="A50" s="58"/>
+      <c r="C50" s="64"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="7"/>
-      <c r="K50" s="62"/>
+      <c r="K50" s="61"/>
       <c r="M50" s="23"/>
-      <c r="O50" s="64"/>
+      <c r="O50" s="63"/>
       <c r="P50" s="22"/>
     </row>
   </sheetData>
@@ -29823,7 +29747,7 @@
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1349</v>
@@ -29861,7 +29785,7 @@
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1349</v>
@@ -29899,7 +29823,7 @@
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1349</v>
@@ -29943,7 +29867,7 @@
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>1349</v>
@@ -29981,7 +29905,7 @@
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>1349</v>
@@ -30025,7 +29949,7 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1349</v>
@@ -30069,7 +29993,7 @@
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1349</v>
@@ -30110,7 +30034,7 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>1349</v>
@@ -30151,13 +30075,13 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1349</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>20</v>
@@ -30192,7 +30116,7 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>1349</v>
@@ -30233,7 +30157,7 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>1349</v>
@@ -30274,7 +30198,7 @@
     </row>
     <row r="13" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>1349</v>
@@ -30312,7 +30236,7 @@
     </row>
     <row r="14" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>1349</v>
@@ -30350,7 +30274,7 @@
     </row>
     <row r="15" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>1349</v>
@@ -30362,7 +30286,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>883</v>
@@ -30411,39 +30335,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -30465,12 +30360,41 @@
 </woProps>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -30479,6 +30403,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -30487,17 +30420,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
